--- a/medicine/Sexualité et sexologie/Zones_humides_(roman)/Zones_humides_(roman).xlsx
+++ b/medicine/Sexualité et sexologie/Zones_humides_(roman)/Zones_humides_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones humides (titre original : Feuchtgebiete) est un roman de Charlotte Roche publié en 2008, puis traduit en français depuis l'allemand l'année suivante.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones humides décrit une exposition au grand jour des pratiques possibles du corps féminin, décomplexant une découverte plus large de son propre corps. Il s'agit d'une confession des petits secrets qu'il existe entre une femme et son corps encourageant cette dernière à supprimer tout tabou induit par la société. Charlotte Roche aborde des plaisirs souvent remplis de honte. Généralement classé dans la « littérature érotique », la catégorisation de ce roman est relative à la réception de son message.
 </t>
@@ -542,7 +556,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été adapté au cinéma en 2013 par David Wnendt.
  Portail de la littérature   Portail de la sexualité et de la sexologie   Portail des femmes et du féminisme   Portail de l’Allemagne                  </t>
